--- a/yanlongbin/Project code/woniuboss/data/woniuboss_api/woniuboss_api.xlsx
+++ b/yanlongbin/Project code/woniuboss/data/woniuboss_api/woniuboss_api.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22080" windowHeight="9947" activeTab="2"/>
+    <workbookView windowWidth="22080" windowHeight="10020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="employment_management" sheetId="3" r:id="rId1"/>
     <sheet name="financial_management" sheetId="2" r:id="rId2"/>
     <sheet name="personnel_management" sheetId="4" r:id="rId3"/>
+    <sheet name="administrative_management" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="114">
   <si>
     <t>用例编号</t>
   </si>
@@ -180,6 +181,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>jr.job_student_id=584
 jr.ent_name=1
 jr.job_position=Java</t>
@@ -223,6 +229,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>ispass=</t>
     </r>
     <r>
@@ -279,6 +290,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>m.minterview_student_id=584
 m.intent_salary=12000
 m.comm=</t>
@@ -1960,16 +1976,28 @@
 emp.qq=</t>
     </r>
   </si>
+  <si>
+    <t>AM_001</t>
+  </si>
+  <si>
+    <t>行政管理页面</t>
+  </si>
+  <si>
+    <t>http://192.168.75.128:8080/WoniuBoss2.5/res</t>
+  </si>
+  <si>
+    <t>AM-succeed</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -2044,21 +2072,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2087,6 +2101,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -2095,8 +2137,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2110,23 +2169,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2141,48 +2200,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2224,7 +2252,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2236,67 +2414,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2308,103 +2432,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2458,16 +2486,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2487,26 +2524,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2525,8 +2553,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2538,10 +2566,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2550,134 +2578,134 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2688,7 +2716,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2702,7 +2729,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2710,6 +2737,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2727,12 +2761,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3059,305 +3087,305 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet2"/>
+  <sheetPr/>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="21.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="39.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.1111111111111" style="9" customWidth="1"/>
     <col min="4" max="4" width="59.2222222222222" customWidth="1"/>
     <col min="6" max="6" width="26.8888888888889" customWidth="1"/>
     <col min="8" max="8" width="14.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="132" spans="1:8">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>200</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" ht="132" spans="1:8">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>200</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" ht="132" spans="1:8">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>200</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" ht="132" spans="1:8">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>200</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" ht="132" spans="1:8">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>200</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" ht="132" spans="1:8">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>200</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" ht="132" spans="1:8">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>200</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" ht="132" spans="1:8">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <v>200</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" ht="132" spans="1:8">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <v>200</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" ht="132" spans="1:8">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <v>200</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3370,449 +3398,449 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet3"/>
+  <sheetPr/>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="D1" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13" style="12" customWidth="1"/>
-    <col min="2" max="2" width="23.7777777777778" style="14" customWidth="1"/>
-    <col min="3" max="3" width="39.1111111111111" style="1" customWidth="1"/>
-    <col min="4" max="4" width="62.2222222222222" style="12" customWidth="1"/>
-    <col min="5" max="5" width="8" style="12" customWidth="1"/>
-    <col min="6" max="6" width="28.6666666666667" style="14" customWidth="1"/>
-    <col min="7" max="7" width="6.33333333333333" style="12" customWidth="1"/>
-    <col min="8" max="8" width="40.4444444444444" style="12" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="14"/>
+    <col min="1" max="1" width="13" style="14" customWidth="1"/>
+    <col min="2" max="2" width="23.7777777777778" style="16" customWidth="1"/>
+    <col min="3" max="3" width="39.1111111111111" style="9" customWidth="1"/>
+    <col min="4" max="4" width="62.2222222222222" style="14" customWidth="1"/>
+    <col min="5" max="5" width="8" style="14" customWidth="1"/>
+    <col min="6" max="6" width="28.6666666666667" style="16" customWidth="1"/>
+    <col min="7" max="7" width="6.33333333333333" style="14" customWidth="1"/>
+    <col min="8" max="8" width="40.4444444444444" style="14" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="1" ht="24" spans="1:8">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="14" customFormat="1" ht="24" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="13" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A2" s="5" t="s">
+    <row r="2" s="15" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="A2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>200</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" s="13" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A3" s="5" t="s">
+    <row r="3" s="15" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="A3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>200</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" s="13" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A4" s="10" t="s">
+    <row r="4" s="15" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="A4" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>58</v>
       </c>
       <c r="D4" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="12">
         <v>200</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" s="13" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A5" s="10" t="s">
+    <row r="5" s="15" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="A5" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>58</v>
       </c>
       <c r="D5" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="12">
         <v>200</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" s="13" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A6" s="10" t="s">
+    <row r="6" s="15" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="A6" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>58</v>
       </c>
       <c r="D6" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="12">
         <v>200</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" s="13" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A7" s="5" t="s">
+    <row r="7" s="15" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="A7" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>65</v>
       </c>
       <c r="D7" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="13">
         <v>200</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" s="13" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A8" s="5" t="s">
+    <row r="8" s="15" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="A8" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>65</v>
       </c>
       <c r="D8" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="13">
         <v>200</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" s="13" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A9" s="10" t="s">
+    <row r="9" s="15" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="A9" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>70</v>
       </c>
       <c r="D9" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="12" t="s">
         <v>18</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="12">
         <v>200</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" s="13" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A10" s="10" t="s">
+    <row r="10" s="15" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="A10" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>70</v>
       </c>
       <c r="D10" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="12" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="12">
         <v>200</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" s="13" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A11" s="5" t="s">
+    <row r="11" s="15" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="A11" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>76</v>
       </c>
       <c r="D11" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="13" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="13">
         <v>200</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" s="13" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A12" s="5" t="s">
+    <row r="12" s="15" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="A12" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>76</v>
       </c>
       <c r="D12" t="s">
         <v>77</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="13" t="s">
         <v>18</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="13">
         <v>200</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" s="13" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A13" s="10" t="s">
+    <row r="13" s="15" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="A13" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>82</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="12" t="s">
         <v>18</v>
       </c>
       <c r="F13" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="12">
         <v>200</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" s="13" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A14" s="10" t="s">
+    <row r="14" s="15" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="A14" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>82</v>
       </c>
       <c r="D14" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="12" t="s">
         <v>18</v>
       </c>
       <c r="F14" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="12">
         <v>200</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" s="13" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A15" s="5" t="s">
+    <row r="15" s="15" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="A15" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>87</v>
       </c>
       <c r="D15" t="s">
         <v>88</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="13" t="s">
         <v>18</v>
       </c>
       <c r="F15" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="13">
         <v>200</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" s="13" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A16" s="5" t="s">
+    <row r="16" s="15" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="A16" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>87</v>
       </c>
       <c r="D16" t="s">
         <v>88</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="13" t="s">
         <v>18</v>
       </c>
       <c r="F16" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="13">
         <v>200</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" spans="3:3">
-      <c r="C17" s="7"/>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" ht="15" customHeight="1" spans="3:3">
-      <c r="C18" s="7"/>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" ht="15" customHeight="1"/>
   </sheetData>
@@ -3824,10 +3852,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet4"/>
+  <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -3835,7 +3863,7 @@
   <cols>
     <col min="1" max="1" width="23.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="21.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="39.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.1111111111111" style="9" customWidth="1"/>
     <col min="4" max="4" width="66.4444444444444" customWidth="1"/>
     <col min="5" max="5" width="11.7777777777778" customWidth="1"/>
     <col min="6" max="6" width="59.8888888888889" customWidth="1"/>
@@ -3843,208 +3871,277 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="132" spans="1:8">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>200</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="3" ht="132" spans="1:8">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>200</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="4" ht="136.2" spans="1:8">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>100</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="12">
         <v>200</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="5" ht="136.2" spans="1:8">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>100</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="12">
         <v>200</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="6" ht="136.8" spans="1:8">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="13">
         <v>200</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="7" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="7" ht="136.8" spans="1:8">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
         <v>106</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="13">
         <v>200</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="7" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="7"/>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="7"/>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" spans="3:3">
-      <c r="C10" s="7"/>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="7"/>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="3:3">
-      <c r="C12" s="7"/>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" spans="3:3">
-      <c r="C13" s="7"/>
+      <c r="C13" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="382.8" spans="1:8">
+      <c r="A2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="7">
+        <v>200</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>